--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="12330"/>
+    <workbookView windowWidth="20330" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AF$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AG$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
   <si>
     <t>版本</t>
   </si>
@@ -80,6 +80,9 @@
     <t>技能6</t>
   </si>
   <si>
+    <t>技能7</t>
+  </si>
+  <si>
     <t>技能10</t>
   </si>
   <si>
@@ -302,6 +305,9 @@
     <t>Ability6</t>
   </si>
   <si>
+    <t>Ability7</t>
+  </si>
+  <si>
     <t>Ability10</t>
   </si>
   <si>
@@ -452,19 +458,25 @@
     <t>models/courier/donkey_ti7/donkey_ti7.vmdl</t>
   </si>
   <si>
-    <t>ability4_courier_base</t>
-  </si>
-  <si>
-    <t>ability5_courier_base</t>
-  </si>
-  <si>
-    <t>ability3_courier_base</t>
-  </si>
-  <si>
-    <t>ability2_courier_base</t>
-  </si>
-  <si>
-    <t>ability6_courier_base</t>
+    <t>courier_draw_card_v1</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>courier_auto_gold</t>
+  </si>
+  <si>
+    <t>courier_fire_chess</t>
+  </si>
+  <si>
+    <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>courier_upgrade_chess</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_FLY</t>
@@ -541,9 +553,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -564,7 +576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,8 +589,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +619,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -614,9 +663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,6 +676,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,59 +710,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -708,7 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,43 +762,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,37 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,55 +882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,26 +914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +949,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,31 +1011,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,133 +1029,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,14 +1511,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BG24" sqref="BG24"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1521,44 +1533,44 @@
     <col min="8" max="8" width="19.5" style="11" customWidth="1"/>
     <col min="9" max="9" width="20.3333333333333" style="11" customWidth="1"/>
     <col min="10" max="14" width="17.75" style="11" customWidth="1"/>
-    <col min="15" max="20" width="10.65" style="11" customWidth="1"/>
-    <col min="21" max="27" width="8.08333333333333" style="11" customWidth="1"/>
-    <col min="28" max="28" width="16.5" style="11" customWidth="1"/>
-    <col min="29" max="29" width="17.0833333333333" style="11" customWidth="1"/>
-    <col min="30" max="30" width="21.5" style="11" customWidth="1"/>
-    <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="25.75" style="11" customWidth="1"/>
-    <col min="33" max="33" width="21.5" customWidth="1"/>
-    <col min="34" max="34" width="24.8333333333333" customWidth="1"/>
-    <col min="35" max="35" width="14.9166666666667" customWidth="1"/>
-    <col min="36" max="36" width="15.5" customWidth="1"/>
-    <col min="37" max="37" width="13.75" customWidth="1"/>
-    <col min="38" max="38" width="17" customWidth="1"/>
-    <col min="39" max="39" width="10.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="16.25" customWidth="1"/>
-    <col min="41" max="41" width="30" customWidth="1"/>
-    <col min="42" max="42" width="16.75" customWidth="1"/>
-    <col min="43" max="43" width="17.0833333333333" customWidth="1"/>
-    <col min="44" max="44" width="9.83333333333333" customWidth="1"/>
-    <col min="45" max="45" width="19.6666666666667" customWidth="1"/>
-    <col min="46" max="46" width="11.5" customWidth="1"/>
-    <col min="47" max="47" width="21.3333333333333" customWidth="1"/>
-    <col min="48" max="48" width="35.3333333333333" customWidth="1"/>
-    <col min="49" max="49" width="13.9166666666667" customWidth="1"/>
-    <col min="50" max="50" width="23.75" customWidth="1"/>
-    <col min="51" max="52" width="19.6666666666667" customWidth="1"/>
-    <col min="53" max="54" width="17.6666666666667" customWidth="1"/>
-    <col min="55" max="56" width="22.1666666666667" customWidth="1"/>
-    <col min="57" max="57" width="8.83333333333333" customWidth="1"/>
-    <col min="58" max="58" width="14.8333333333333" customWidth="1"/>
-    <col min="59" max="59" width="12.75" customWidth="1"/>
-    <col min="60" max="60" width="8.5" customWidth="1"/>
-    <col min="61" max="61" width="28.6166666666667" customWidth="1"/>
-    <col min="62" max="62" width="29.5666666666667" customWidth="1"/>
-    <col min="63" max="64" width="20.5833333333333" customWidth="1"/>
+    <col min="15" max="21" width="10.65" style="11" customWidth="1"/>
+    <col min="22" max="28" width="8.08333333333333" style="11" customWidth="1"/>
+    <col min="29" max="29" width="16.5" style="11" customWidth="1"/>
+    <col min="30" max="30" width="17.0833333333333" style="11" customWidth="1"/>
+    <col min="31" max="31" width="21.5" style="11" customWidth="1"/>
+    <col min="32" max="32" width="19" customWidth="1"/>
+    <col min="33" max="33" width="25.75" style="11" customWidth="1"/>
+    <col min="34" max="34" width="21.5" customWidth="1"/>
+    <col min="35" max="35" width="24.8333333333333" customWidth="1"/>
+    <col min="36" max="36" width="14.9166666666667" customWidth="1"/>
+    <col min="37" max="37" width="15.5" customWidth="1"/>
+    <col min="38" max="38" width="13.75" customWidth="1"/>
+    <col min="39" max="39" width="17" customWidth="1"/>
+    <col min="40" max="40" width="10.6666666666667" customWidth="1"/>
+    <col min="41" max="41" width="16.25" customWidth="1"/>
+    <col min="42" max="42" width="30" customWidth="1"/>
+    <col min="43" max="43" width="16.75" customWidth="1"/>
+    <col min="44" max="44" width="17.0833333333333" customWidth="1"/>
+    <col min="45" max="45" width="9.83333333333333" customWidth="1"/>
+    <col min="46" max="46" width="19.6666666666667" customWidth="1"/>
+    <col min="47" max="47" width="11.5" customWidth="1"/>
+    <col min="48" max="48" width="21.3333333333333" customWidth="1"/>
+    <col min="49" max="49" width="35.3333333333333" customWidth="1"/>
+    <col min="50" max="50" width="13.9166666666667" customWidth="1"/>
+    <col min="51" max="51" width="23.75" customWidth="1"/>
+    <col min="52" max="53" width="19.6666666666667" customWidth="1"/>
+    <col min="54" max="55" width="17.6666666666667" customWidth="1"/>
+    <col min="56" max="57" width="22.1666666666667" customWidth="1"/>
+    <col min="58" max="58" width="8.83333333333333" customWidth="1"/>
+    <col min="59" max="59" width="14.8333333333333" customWidth="1"/>
+    <col min="60" max="60" width="12.75" customWidth="1"/>
+    <col min="61" max="61" width="8.5" customWidth="1"/>
+    <col min="62" max="62" width="28.6166666666667" customWidth="1"/>
+    <col min="63" max="63" width="29.5666666666667" customWidth="1"/>
+    <col min="64" max="65" width="20.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:74">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="8" t="s">
@@ -1736,7 +1748,7 @@
       <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
@@ -1781,249 +1793,255 @@
       <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:74">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL2" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="AL2" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="AM2" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY2" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="AY2" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="AZ2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH2" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="BH2" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="BI2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:64">
+    <row r="3" s="3" customFormat="1" spans="1:65">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -2035,37 +2053,40 @@
         <v>2000</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>5</v>
+        <v>151</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="AD3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="3">
         <v>200</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>550</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH3" s="3">
         <v>0.5</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
       </c>
       <c r="AI3" s="3">
         <v>0</v>
@@ -2074,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="3">
         <v>100</v>
@@ -2083,13 +2104,13 @@
         <v>100</v>
       </c>
       <c r="AN3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="3">
         <v>0</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>0</v>
+      <c r="AP3" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="AZ3" s="3">
         <v>0</v>
@@ -2106,10 +2127,13 @@
       <c r="BD3" s="3">
         <v>0</v>
       </c>
-      <c r="BE3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL3" s="3">
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2123,10 +2147,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY26"/>
+  <dimension ref="A1:BZ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2140,35 +2164,35 @@
     <col min="14" max="14" width="12.8333333333333" customWidth="1"/>
     <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
     <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
-    <col min="17" max="30" width="9.41666666666667" customWidth="1"/>
-    <col min="31" max="31" width="12.75" customWidth="1"/>
-    <col min="32" max="32" width="14.1666666666667" customWidth="1"/>
-    <col min="33" max="33" width="15.4166666666667" customWidth="1"/>
-    <col min="34" max="34" width="20.0833333333333" customWidth="1"/>
-    <col min="35" max="35" width="17.75" customWidth="1"/>
-    <col min="36" max="36" width="19" customWidth="1"/>
-    <col min="37" max="37" width="12.9166666666667" customWidth="1"/>
-    <col min="38" max="38" width="16.5" customWidth="1"/>
-    <col min="39" max="39" width="15.4166666666667" customWidth="1"/>
-    <col min="40" max="48" width="17" customWidth="1"/>
-    <col min="49" max="49" width="21.3333333333333" customWidth="1"/>
-    <col min="50" max="52" width="17" customWidth="1"/>
-    <col min="53" max="54" width="19.6666666666667" customWidth="1"/>
-    <col min="55" max="56" width="17.6666666666667" customWidth="1"/>
-    <col min="57" max="58" width="22.1666666666667" customWidth="1"/>
-    <col min="59" max="59" width="9.41666666666667" customWidth="1"/>
-    <col min="60" max="60" width="19.3333333333333" customWidth="1"/>
-    <col min="61" max="61" width="16" customWidth="1"/>
-    <col min="62" max="65" width="9.41666666666667" customWidth="1"/>
-    <col min="66" max="66" width="10.4166666666667" customWidth="1"/>
-    <col min="68" max="69" width="13.8333333333333" customWidth="1"/>
-    <col min="70" max="76" width="13.0833333333333" customWidth="1"/>
-    <col min="77" max="77" width="13.5833333333333" customWidth="1"/>
+    <col min="17" max="31" width="9.41666666666667" customWidth="1"/>
+    <col min="32" max="32" width="12.75" customWidth="1"/>
+    <col min="33" max="33" width="14.1666666666667" customWidth="1"/>
+    <col min="34" max="34" width="15.4166666666667" customWidth="1"/>
+    <col min="35" max="35" width="20.0833333333333" customWidth="1"/>
+    <col min="36" max="36" width="17.75" customWidth="1"/>
+    <col min="37" max="37" width="19" customWidth="1"/>
+    <col min="38" max="38" width="12.9166666666667" customWidth="1"/>
+    <col min="39" max="39" width="16.5" customWidth="1"/>
+    <col min="40" max="40" width="15.4166666666667" customWidth="1"/>
+    <col min="41" max="49" width="17" customWidth="1"/>
+    <col min="50" max="50" width="21.3333333333333" customWidth="1"/>
+    <col min="51" max="53" width="17" customWidth="1"/>
+    <col min="54" max="55" width="19.6666666666667" customWidth="1"/>
+    <col min="56" max="57" width="17.6666666666667" customWidth="1"/>
+    <col min="58" max="59" width="22.1666666666667" customWidth="1"/>
+    <col min="60" max="60" width="9.41666666666667" customWidth="1"/>
+    <col min="61" max="61" width="19.3333333333333" customWidth="1"/>
+    <col min="62" max="62" width="16" customWidth="1"/>
+    <col min="63" max="66" width="9.41666666666667" customWidth="1"/>
+    <col min="67" max="67" width="10.4166666666667" customWidth="1"/>
+    <col min="69" max="70" width="13.8333333333333" customWidth="1"/>
+    <col min="71" max="77" width="13.0833333333333" customWidth="1"/>
+    <col min="78" max="78" width="13.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:77">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:78">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2260,7 +2284,7 @@
       <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AG1" s="8" t="s">
@@ -2350,7 +2374,7 @@
       <c r="BI1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -2365,7 +2389,7 @@
       <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BQ1" s="1" t="s">
@@ -2395,764 +2419,778 @@
       <c r="BY1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:77">
+    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:78">
       <c r="A2" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="AN2" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="AO2" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA2" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="BA2" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="BB2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="BJ2" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="BK2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:78">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:78">
+      <c r="A4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="BU3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BW3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BX3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:77">
-      <c r="A4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="BR4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="17:18">
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="10" spans="67:71">
-      <c r="BO10" s="1"/>
+    <row r="10" spans="68:72">
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
     </row>
-    <row r="11" spans="16:71">
+    <row r="11" spans="16:72">
       <c r="P11" s="8"/>
-      <c r="BO11" s="2"/>
+      <c r="W11" s="3"/>
       <c r="BP11" s="2"/>
       <c r="BQ11" s="2"/>
       <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="4:23">
       <c r="D12" s="6"/>
       <c r="O12" s="8"/>
       <c r="P12" s="9"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="15:15">
       <c r="O13" s="9"/>
     </row>
-    <row r="23" spans="67:72">
-      <c r="BO23" s="1"/>
+    <row r="23" spans="68:73">
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
       <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
     </row>
-    <row r="24" spans="67:72">
-      <c r="BO24" s="2"/>
+    <row r="24" spans="68:73">
       <c r="BP24" s="2"/>
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
     </row>
-    <row r="25" spans="67:72">
-      <c r="BO25" s="7"/>
+    <row r="25" spans="68:73">
       <c r="BP25" s="7"/>
       <c r="BQ25" s="7"/>
       <c r="BR25" s="7"/>
       <c r="BS25" s="7"/>
       <c r="BT25" s="7"/>
+      <c r="BU25" s="7"/>
     </row>
-    <row r="26" spans="67:72">
-      <c r="BO26" s="3"/>
+    <row r="26" spans="68:73">
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="11580"/>
+    <workbookView windowWidth="20330" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AG$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AI$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="181">
   <si>
     <t>版本</t>
   </si>
@@ -47,6 +47,12 @@
     <t>英雄选中音效</t>
   </si>
   <si>
+    <t>碰撞盒名称</t>
+  </si>
+  <si>
+    <t>选择圈大小</t>
+  </si>
+  <si>
     <t>游戏音效文件</t>
   </si>
   <si>
@@ -272,6 +278,12 @@
     <t>HeroSelectSoundEffect</t>
   </si>
   <si>
+    <t>BoundsHullName</t>
+  </si>
+  <si>
+    <t>RingRadius</t>
+  </si>
+  <si>
     <t>GameSoundsFile</t>
   </si>
   <si>
@@ -456,6 +468,9 @@
   </si>
   <si>
     <t>models/courier/donkey_ti7/donkey_ti7.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_HERO</t>
   </si>
   <si>
     <t>courier_draw_card_v1</t>
@@ -553,14 +568,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -574,14 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -589,9 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,52 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,22 +644,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,6 +662,76 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -720,55 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +760,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,49 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +874,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,6 +933,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -925,6 +974,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,8 +1010,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -967,199 +1033,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1191,6 +1213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1511,17 +1536,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="11.4166666666667" style="10" customWidth="1"/>
@@ -1532,45 +1557,46 @@
     <col min="7" max="7" width="10.3333333333333" style="6" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="11" customWidth="1"/>
     <col min="9" max="9" width="20.3333333333333" style="11" customWidth="1"/>
-    <col min="10" max="14" width="17.75" style="11" customWidth="1"/>
-    <col min="15" max="21" width="10.65" style="11" customWidth="1"/>
-    <col min="22" max="28" width="8.08333333333333" style="11" customWidth="1"/>
-    <col min="29" max="29" width="16.5" style="11" customWidth="1"/>
-    <col min="30" max="30" width="17.0833333333333" style="11" customWidth="1"/>
-    <col min="31" max="31" width="21.5" style="11" customWidth="1"/>
-    <col min="32" max="32" width="19" customWidth="1"/>
-    <col min="33" max="33" width="25.75" style="11" customWidth="1"/>
-    <col min="34" max="34" width="21.5" customWidth="1"/>
-    <col min="35" max="35" width="24.8333333333333" customWidth="1"/>
-    <col min="36" max="36" width="14.9166666666667" customWidth="1"/>
-    <col min="37" max="37" width="15.5" customWidth="1"/>
-    <col min="38" max="38" width="13.75" customWidth="1"/>
-    <col min="39" max="39" width="17" customWidth="1"/>
-    <col min="40" max="40" width="10.6666666666667" customWidth="1"/>
-    <col min="41" max="41" width="16.25" customWidth="1"/>
-    <col min="42" max="42" width="30" customWidth="1"/>
-    <col min="43" max="43" width="16.75" customWidth="1"/>
-    <col min="44" max="44" width="17.0833333333333" customWidth="1"/>
-    <col min="45" max="45" width="9.83333333333333" customWidth="1"/>
-    <col min="46" max="46" width="19.6666666666667" customWidth="1"/>
-    <col min="47" max="47" width="11.5" customWidth="1"/>
-    <col min="48" max="48" width="21.3333333333333" customWidth="1"/>
-    <col min="49" max="49" width="35.3333333333333" customWidth="1"/>
-    <col min="50" max="50" width="13.9166666666667" customWidth="1"/>
-    <col min="51" max="51" width="23.75" customWidth="1"/>
-    <col min="52" max="53" width="19.6666666666667" customWidth="1"/>
-    <col min="54" max="55" width="17.6666666666667" customWidth="1"/>
-    <col min="56" max="57" width="22.1666666666667" customWidth="1"/>
-    <col min="58" max="58" width="8.83333333333333" customWidth="1"/>
-    <col min="59" max="59" width="14.8333333333333" customWidth="1"/>
-    <col min="60" max="60" width="12.75" customWidth="1"/>
-    <col min="61" max="61" width="8.5" customWidth="1"/>
-    <col min="62" max="62" width="28.6166666666667" customWidth="1"/>
-    <col min="63" max="63" width="29.5666666666667" customWidth="1"/>
-    <col min="64" max="65" width="20.5833333333333" customWidth="1"/>
+    <col min="10" max="11" width="21.8333333333333" style="11" customWidth="1"/>
+    <col min="12" max="16" width="17.75" style="11" customWidth="1"/>
+    <col min="17" max="23" width="10.65" style="11" customWidth="1"/>
+    <col min="24" max="30" width="8.08333333333333" style="11" customWidth="1"/>
+    <col min="31" max="31" width="16.5" style="11" customWidth="1"/>
+    <col min="32" max="32" width="17.0833333333333" style="11" customWidth="1"/>
+    <col min="33" max="33" width="21.5" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19" customWidth="1"/>
+    <col min="35" max="35" width="25.75" style="11" customWidth="1"/>
+    <col min="36" max="36" width="21.5" customWidth="1"/>
+    <col min="37" max="37" width="24.8333333333333" customWidth="1"/>
+    <col min="38" max="38" width="14.9166666666667" customWidth="1"/>
+    <col min="39" max="39" width="15.5" customWidth="1"/>
+    <col min="40" max="40" width="13.75" customWidth="1"/>
+    <col min="41" max="41" width="17" customWidth="1"/>
+    <col min="42" max="42" width="10.6666666666667" customWidth="1"/>
+    <col min="43" max="43" width="16.25" customWidth="1"/>
+    <col min="44" max="44" width="30" customWidth="1"/>
+    <col min="45" max="45" width="16.75" customWidth="1"/>
+    <col min="46" max="46" width="17.0833333333333" customWidth="1"/>
+    <col min="47" max="47" width="9.83333333333333" customWidth="1"/>
+    <col min="48" max="48" width="19.6666666666667" customWidth="1"/>
+    <col min="49" max="49" width="11.5" customWidth="1"/>
+    <col min="50" max="50" width="21.3333333333333" customWidth="1"/>
+    <col min="51" max="51" width="35.3333333333333" customWidth="1"/>
+    <col min="52" max="52" width="13.9166666666667" customWidth="1"/>
+    <col min="53" max="53" width="23.75" customWidth="1"/>
+    <col min="54" max="55" width="19.6666666666667" customWidth="1"/>
+    <col min="56" max="57" width="17.6666666666667" customWidth="1"/>
+    <col min="58" max="59" width="22.1666666666667" customWidth="1"/>
+    <col min="60" max="60" width="8.83333333333333" customWidth="1"/>
+    <col min="61" max="61" width="14.8333333333333" customWidth="1"/>
+    <col min="62" max="62" width="12.75" customWidth="1"/>
+    <col min="63" max="63" width="8.5" customWidth="1"/>
+    <col min="64" max="64" width="28.6166666666667" customWidth="1"/>
+    <col min="65" max="65" width="29.5666666666667" customWidth="1"/>
+    <col min="66" max="67" width="20.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:77">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1613,10 +1639,10 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1661,10 +1687,10 @@
       <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="8" t="s">
@@ -1751,10 +1777,10 @@
       <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -1796,327 +1822,339 @@
       <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:77">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="L2" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="O2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="Q2" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN2" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="AM2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="AO2" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA2" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="AZ2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="BB2" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="BI2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="BK2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:65">
+    <row r="3" s="3" customFormat="1" spans="1:67">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="J3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="9">
+        <v>70</v>
+      </c>
+      <c r="O3" s="3">
         <v>2000</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>2000</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD3" s="3">
+        <v>155</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF3" s="3">
         <v>7</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AG3" s="3">
         <v>200</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AH3" s="3">
         <v>550</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH3" s="3">
+      <c r="AI3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ3" s="3">
         <v>0.5</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0</v>
       </c>
       <c r="AK3" s="3">
         <v>0</v>
       </c>
       <c r="AL3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="3">
         <v>100</v>
       </c>
       <c r="AO3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="3">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>0</v>
+      <c r="AR3" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
@@ -2130,12 +2168,26 @@
       <c r="BE3" s="3">
         <v>0</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM3" s="3">
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO3" s="3">
         <v>1</v>
       </c>
+    </row>
+    <row r="7" ht="15.5" spans="10:11">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" ht="15.5" spans="10:11">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,10 +2199,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BZ26"/>
+  <dimension ref="A1:CB26"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2158,41 +2210,41 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="4" width="11.9166666666667" customWidth="1"/>
     <col min="5" max="10" width="13.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="15.0833333333333" customWidth="1"/>
-    <col min="13" max="13" width="9.41666666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
-    <col min="17" max="31" width="9.41666666666667" customWidth="1"/>
-    <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="14.1666666666667" customWidth="1"/>
-    <col min="34" max="34" width="15.4166666666667" customWidth="1"/>
-    <col min="35" max="35" width="20.0833333333333" customWidth="1"/>
-    <col min="36" max="36" width="17.75" customWidth="1"/>
-    <col min="37" max="37" width="19" customWidth="1"/>
-    <col min="38" max="38" width="12.9166666666667" customWidth="1"/>
-    <col min="39" max="39" width="16.5" customWidth="1"/>
-    <col min="40" max="40" width="15.4166666666667" customWidth="1"/>
-    <col min="41" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="21.3333333333333" customWidth="1"/>
-    <col min="51" max="53" width="17" customWidth="1"/>
-    <col min="54" max="55" width="19.6666666666667" customWidth="1"/>
-    <col min="56" max="57" width="17.6666666666667" customWidth="1"/>
-    <col min="58" max="59" width="22.1666666666667" customWidth="1"/>
-    <col min="60" max="60" width="9.41666666666667" customWidth="1"/>
-    <col min="61" max="61" width="19.3333333333333" customWidth="1"/>
-    <col min="62" max="62" width="16" customWidth="1"/>
-    <col min="63" max="66" width="9.41666666666667" customWidth="1"/>
-    <col min="67" max="67" width="10.4166666666667" customWidth="1"/>
-    <col min="69" max="70" width="13.8333333333333" customWidth="1"/>
-    <col min="71" max="77" width="13.0833333333333" customWidth="1"/>
-    <col min="78" max="78" width="13.5833333333333" customWidth="1"/>
+    <col min="11" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="15.0833333333333" customWidth="1"/>
+    <col min="15" max="15" width="9.41666666666667" customWidth="1"/>
+    <col min="16" max="16" width="12.8333333333333" customWidth="1"/>
+    <col min="17" max="17" width="18.5833333333333" customWidth="1"/>
+    <col min="18" max="18" width="20.1666666666667" customWidth="1"/>
+    <col min="19" max="33" width="9.41666666666667" customWidth="1"/>
+    <col min="34" max="34" width="12.75" customWidth="1"/>
+    <col min="35" max="35" width="14.1666666666667" customWidth="1"/>
+    <col min="36" max="36" width="15.4166666666667" customWidth="1"/>
+    <col min="37" max="37" width="20.0833333333333" customWidth="1"/>
+    <col min="38" max="38" width="17.75" customWidth="1"/>
+    <col min="39" max="39" width="19" customWidth="1"/>
+    <col min="40" max="40" width="12.9166666666667" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="42" width="15.4166666666667" customWidth="1"/>
+    <col min="43" max="51" width="17" customWidth="1"/>
+    <col min="52" max="52" width="21.3333333333333" customWidth="1"/>
+    <col min="53" max="55" width="17" customWidth="1"/>
+    <col min="56" max="57" width="19.6666666666667" customWidth="1"/>
+    <col min="58" max="59" width="17.6666666666667" customWidth="1"/>
+    <col min="60" max="61" width="22.1666666666667" customWidth="1"/>
+    <col min="62" max="62" width="9.41666666666667" customWidth="1"/>
+    <col min="63" max="63" width="19.3333333333333" customWidth="1"/>
+    <col min="64" max="64" width="16" customWidth="1"/>
+    <col min="65" max="68" width="9.41666666666667" customWidth="1"/>
+    <col min="69" max="69" width="10.4166666666667" customWidth="1"/>
+    <col min="71" max="72" width="13.8333333333333" customWidth="1"/>
+    <col min="73" max="79" width="13.0833333333333" customWidth="1"/>
+    <col min="80" max="80" width="13.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:78">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:80">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2239,10 +2291,10 @@
       <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -2287,10 +2339,10 @@
       <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AI1" s="8" t="s">
@@ -2377,10 +2429,10 @@
       <c r="BJ1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="8" t="s">
         <v>61</v>
       </c>
       <c r="BM1" s="1" t="s">
@@ -2392,10 +2444,10 @@
       <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BP1" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="BQ1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BR1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BS1" s="1" t="s">
@@ -2422,775 +2474,803 @@
       <c r="BZ1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="CA1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:78">
+    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:80">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="L2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="N2" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="Q2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="AO2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="AQ2" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC2" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="BB2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="BD2" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL2" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="BK2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="BM2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:80">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:80">
+      <c r="A4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BR3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BU3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BX3" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ3" s="7" t="s">
-        <v>173</v>
+      <c r="BT4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:78">
-      <c r="A4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ4" s="2" t="s">
-        <v>159</v>
-      </c>
+    <row r="8" spans="19:20">
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
-    <row r="8" spans="17:18">
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="10" spans="68:72">
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
+    <row r="10" spans="70:74">
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
       <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
     </row>
-    <row r="11" spans="16:72">
-      <c r="P11" s="8"/>
-      <c r="W11" s="3"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
+    <row r="11" spans="18:74">
+      <c r="R11" s="8"/>
+      <c r="Y11" s="3"/>
       <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
     </row>
-    <row r="12" spans="4:23">
+    <row r="12" spans="4:25">
       <c r="D12" s="6"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="9"/>
-      <c r="W12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="15:15">
-      <c r="O13" s="9"/>
+    <row r="13" spans="12:17">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
-    <row r="23" spans="68:73">
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
+    <row r="23" spans="70:75">
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
     </row>
-    <row r="24" spans="68:73">
-      <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
+    <row r="24" spans="70:75">
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
       <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
     </row>
-    <row r="25" spans="68:73">
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
+    <row r="25" spans="70:75">
       <c r="BR25" s="7"/>
       <c r="BS25" s="7"/>
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
+      <c r="BV25" s="7"/>
+      <c r="BW25" s="7"/>
     </row>
-    <row r="26" spans="68:73">
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
+    <row r="26" spans="70:75">
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="11580" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="180">
   <si>
     <t>版本</t>
   </si>
@@ -485,13 +485,10 @@
     <t>courier_auto_gold</t>
   </si>
   <si>
-    <t>courier_fire_chess</t>
-  </si>
-  <si>
     <t>courier_recovery_chess</t>
   </si>
   <si>
-    <t>courier_upgrade_chess</t>
+    <t>ability_empty</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_FLY</t>
@@ -569,9 +566,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -590,13 +587,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -604,22 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,77 +608,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,7 +632,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,6 +688,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,7 +739,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,19 +853,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,61 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,85 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,11 +933,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,8 +966,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,32 +996,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,31 +1030,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,133 +1048,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,12 +1535,12 @@
   <sheetPr/>
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K2"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -2114,9 +2111,6 @@
       <c r="V3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="AF3" s="3">
         <v>7</v>
       </c>
@@ -2127,7 +2121,7 @@
         <v>550</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ3" s="3">
         <v>0.5</v>
@@ -2154,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
@@ -2175,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BO3" s="3">
         <v>1</v>
@@ -2201,7 +2195,7 @@
   <sheetPr/>
   <dimension ref="A1:CB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2238,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:80">
       <c r="A1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2483,10 +2477,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:80">
       <c r="A2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>77</v>
@@ -2690,7 +2684,7 @@
         <v>143</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>144</v>
@@ -2725,486 +2719,486 @@
     </row>
     <row r="3" spans="1:80">
       <c r="A3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="CB3" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:80">
       <c r="A4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="BT4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="BU4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="19:20">

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
   <si>
     <t>版本</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>AttachWearables</t>
-  </si>
-  <si>
-    <t>courier_base</t>
   </si>
   <si>
     <t>npc_dota_hero_phoenix</t>
@@ -1536,18 +1533,17 @@
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="11.4166666666667" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.4166666666667" style="10" customWidth="1"/>
+    <col min="2" max="3" width="21.4166666666667" style="10" customWidth="1"/>
     <col min="4" max="4" width="6.16666666666667" style="6" customWidth="1"/>
     <col min="5" max="5" width="35.0833333333333" style="6" customWidth="1"/>
     <col min="6" max="6" width="37.6666666666667" style="6" customWidth="1"/>
@@ -2067,22 +2063,22 @@
         <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="9">
         <v>70</v>
@@ -2094,22 +2090,22 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="AF3" s="3">
         <v>7</v>
@@ -2121,7 +2117,7 @@
         <v>550</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ3" s="3">
         <v>0.5</v>
@@ -2139,7 +2135,7 @@
         <v>100</v>
       </c>
       <c r="AO3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="3">
         <v>100</v>
@@ -2148,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
@@ -2169,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BO3" s="3">
         <v>1</v>
@@ -2238,7 +2234,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:80">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2477,10 +2473,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:80">
       <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>77</v>
@@ -2684,7 +2680,7 @@
         <v>143</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>144</v>
@@ -2719,486 +2715,486 @@
     </row>
     <row r="3" spans="1:80">
       <c r="A3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="CB3" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:80">
       <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="BT4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="BU4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="19:20">

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -1533,11 +1533,11 @@
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -455,7 +455,7 @@
     <t>AttachWearables</t>
   </si>
   <si>
-    <t>npc_dota_hero_phoenix</t>
+    <t>npc_dota_hero_wisp</t>
   </si>
   <si>
     <t>信使</t>
@@ -464,7 +464,7 @@
     <t>npc/courier/courier_base.lua</t>
   </si>
   <si>
-    <t>models/courier/donkey_ti7/donkey_ti7.vmdl</t>
+    <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
   </si>
   <si>
     <t>DOTA_HULL_SIZE_HERO</t>
@@ -1533,11 +1533,11 @@
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB2" sqref="BB2"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="180">
   <si>
     <t>版本</t>
   </si>
@@ -479,13 +479,16 @@
     <t>courier_draw_card_v3</t>
   </si>
   <si>
+    <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>courier_upgrade_population</t>
+  </si>
+  <si>
+    <t>courier_upgrade_tech</t>
+  </si>
+  <si>
     <t>courier_auto_gold</t>
-  </si>
-  <si>
-    <t>courier_recovery_chess</t>
-  </si>
-  <si>
-    <t>ability_empty</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_FLY</t>
@@ -1533,11 +1536,11 @@
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -2101,11 +2104,14 @@
       <c r="T3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="10" t="s">
         <v>155</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="AF3" s="3">
         <v>7</v>
@@ -2117,7 +2123,7 @@
         <v>550</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ3" s="3">
         <v>0.5</v>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BO3" s="3">
         <v>1</v>
@@ -2234,7 +2240,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:80">
       <c r="A1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2473,10 +2479,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:80">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>77</v>
@@ -2680,7 +2686,7 @@
         <v>143</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>144</v>
@@ -2715,258 +2721,258 @@
     </row>
     <row r="3" spans="1:80">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="BS3" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BT3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BU3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BV3" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BW3" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BX3" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BY3" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BZ3" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CA3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CB3" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:80">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>78</v>
@@ -3167,34 +3173,34 @@
         <v>78</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="19:20">

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -482,10 +482,10 @@
     <t>courier_recovery_chess</t>
   </si>
   <si>
+    <t>courier_upgrade_tech</t>
+  </si>
+  <si>
     <t>courier_upgrade_population</t>
-  </si>
-  <si>
-    <t>courier_upgrade_tech</t>
   </si>
   <si>
     <t>courier_auto_gold</t>
@@ -1540,7 +1540,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -1536,11 +1536,11 @@
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AI$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$AJ$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="183">
   <si>
     <t>版本</t>
   </si>
@@ -89,6 +89,9 @@
     <t>技能7</t>
   </si>
   <si>
+    <t>技能8</t>
+  </si>
+  <si>
     <t>技能10</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t>Ability7</t>
   </si>
   <si>
+    <t>Ability8</t>
+  </si>
+  <si>
     <t>Ability10</t>
   </si>
   <si>
@@ -480,6 +486,17 @@
   </si>
   <si>
     <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>courier_hut_change</t>
+    </r>
   </si>
   <si>
     <t>courier_upgrade_tech</t>
@@ -570,7 +587,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +745,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1533,14 +1556,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY8"/>
+  <dimension ref="A1:BZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1555,44 +1578,45 @@
     <col min="9" max="9" width="20.3333333333333" style="11" customWidth="1"/>
     <col min="10" max="11" width="21.8333333333333" style="11" customWidth="1"/>
     <col min="12" max="16" width="17.75" style="11" customWidth="1"/>
-    <col min="17" max="23" width="10.65" style="11" customWidth="1"/>
-    <col min="24" max="30" width="8.08333333333333" style="11" customWidth="1"/>
-    <col min="31" max="31" width="16.5" style="11" customWidth="1"/>
-    <col min="32" max="32" width="17.0833333333333" style="11" customWidth="1"/>
-    <col min="33" max="33" width="21.5" style="11" customWidth="1"/>
-    <col min="34" max="34" width="19" customWidth="1"/>
-    <col min="35" max="35" width="25.75" style="11" customWidth="1"/>
-    <col min="36" max="36" width="21.5" customWidth="1"/>
-    <col min="37" max="37" width="24.8333333333333" customWidth="1"/>
-    <col min="38" max="38" width="14.9166666666667" customWidth="1"/>
-    <col min="39" max="39" width="15.5" customWidth="1"/>
-    <col min="40" max="40" width="13.75" customWidth="1"/>
-    <col min="41" max="41" width="17" customWidth="1"/>
-    <col min="42" max="42" width="10.6666666666667" customWidth="1"/>
-    <col min="43" max="43" width="16.25" customWidth="1"/>
-    <col min="44" max="44" width="30" customWidth="1"/>
-    <col min="45" max="45" width="16.75" customWidth="1"/>
-    <col min="46" max="46" width="17.0833333333333" customWidth="1"/>
-    <col min="47" max="47" width="9.83333333333333" customWidth="1"/>
-    <col min="48" max="48" width="19.6666666666667" customWidth="1"/>
-    <col min="49" max="49" width="11.5" customWidth="1"/>
-    <col min="50" max="50" width="21.3333333333333" customWidth="1"/>
-    <col min="51" max="51" width="35.3333333333333" customWidth="1"/>
-    <col min="52" max="52" width="13.9166666666667" customWidth="1"/>
-    <col min="53" max="53" width="23.75" customWidth="1"/>
-    <col min="54" max="55" width="19.6666666666667" customWidth="1"/>
-    <col min="56" max="57" width="17.6666666666667" customWidth="1"/>
-    <col min="58" max="59" width="22.1666666666667" customWidth="1"/>
-    <col min="60" max="60" width="8.83333333333333" customWidth="1"/>
-    <col min="61" max="61" width="14.8333333333333" customWidth="1"/>
-    <col min="62" max="62" width="12.75" customWidth="1"/>
-    <col min="63" max="63" width="8.5" customWidth="1"/>
-    <col min="64" max="64" width="28.6166666666667" customWidth="1"/>
-    <col min="65" max="65" width="29.5666666666667" customWidth="1"/>
-    <col min="66" max="67" width="20.5833333333333" customWidth="1"/>
+    <col min="17" max="24" width="10.65" style="11" customWidth="1"/>
+    <col min="25" max="31" width="8.08333333333333" style="11" customWidth="1"/>
+    <col min="32" max="32" width="16.5" style="11" customWidth="1"/>
+    <col min="33" max="33" width="17.0833333333333" style="11" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="11" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+    <col min="36" max="36" width="25.75" style="11" customWidth="1"/>
+    <col min="37" max="37" width="21.5" customWidth="1"/>
+    <col min="38" max="38" width="24.8333333333333" customWidth="1"/>
+    <col min="39" max="39" width="14.9166666666667" customWidth="1"/>
+    <col min="40" max="40" width="15.5" customWidth="1"/>
+    <col min="41" max="41" width="13.75" customWidth="1"/>
+    <col min="42" max="42" width="17" customWidth="1"/>
+    <col min="43" max="43" width="10.6666666666667" customWidth="1"/>
+    <col min="44" max="44" width="16.25" customWidth="1"/>
+    <col min="45" max="45" width="30" customWidth="1"/>
+    <col min="46" max="46" width="16.75" customWidth="1"/>
+    <col min="47" max="47" width="17.0833333333333" customWidth="1"/>
+    <col min="48" max="48" width="9.83333333333333" customWidth="1"/>
+    <col min="49" max="49" width="19.6666666666667" customWidth="1"/>
+    <col min="50" max="50" width="11.5" customWidth="1"/>
+    <col min="51" max="51" width="21.3333333333333" customWidth="1"/>
+    <col min="52" max="52" width="35.3333333333333" customWidth="1"/>
+    <col min="53" max="53" width="13.9166666666667" customWidth="1"/>
+    <col min="54" max="54" width="23.75" customWidth="1"/>
+    <col min="55" max="56" width="19.6666666666667" customWidth="1"/>
+    <col min="57" max="58" width="17.6666666666667" customWidth="1"/>
+    <col min="59" max="60" width="22.1666666666667" customWidth="1"/>
+    <col min="61" max="61" width="8.83333333333333" customWidth="1"/>
+    <col min="62" max="62" width="14.8333333333333" customWidth="1"/>
+    <col min="63" max="63" width="12.75" customWidth="1"/>
+    <col min="64" max="64" width="8.5" customWidth="1"/>
+    <col min="65" max="65" width="28.6166666666667" customWidth="1"/>
+    <col min="66" max="66" width="29.5666666666667" customWidth="1"/>
+    <col min="67" max="67" width="20.5833333333333" customWidth="1"/>
+    <col min="68" max="68" width="17.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:77">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:78">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1713,7 @@
       <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="8" t="s">
@@ -1779,7 +1803,7 @@
       <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="8" t="s">
         <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
@@ -1824,264 +1848,270 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:77">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:78">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="AO2" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="AP2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB2" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="BB2" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="BC2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK2" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BK2" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="BL2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:67">
+    <row r="3" s="3" customFormat="1" ht="15.5" spans="1:68">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K3" s="9">
         <v>70</v>
@@ -2093,43 +2123,43 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF3" s="3">
+        <v>157</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="3">
         <v>7</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AH3" s="3">
         <v>200</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AI3" s="3">
         <v>550</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK3" s="3">
         <v>0.5</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0</v>
       </c>
       <c r="AL3" s="3">
         <v>0</v>
@@ -2138,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
         <v>100</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AP3" s="3">
         <v>0</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AQ3" s="3">
         <v>100</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AR3" s="3">
         <v>0</v>
       </c>
-      <c r="AR3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>0</v>
+      <c r="AS3" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="BC3" s="3">
         <v>0</v>
@@ -2170,10 +2200,13 @@
       <c r="BG3" s="3">
         <v>0</v>
       </c>
-      <c r="BH3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO3" s="3">
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2195,10 +2228,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB26"/>
+  <dimension ref="A1:CC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2212,35 +2245,35 @@
     <col min="16" max="16" width="12.8333333333333" customWidth="1"/>
     <col min="17" max="17" width="18.5833333333333" customWidth="1"/>
     <col min="18" max="18" width="20.1666666666667" customWidth="1"/>
-    <col min="19" max="33" width="9.41666666666667" customWidth="1"/>
-    <col min="34" max="34" width="12.75" customWidth="1"/>
-    <col min="35" max="35" width="14.1666666666667" customWidth="1"/>
-    <col min="36" max="36" width="15.4166666666667" customWidth="1"/>
-    <col min="37" max="37" width="20.0833333333333" customWidth="1"/>
-    <col min="38" max="38" width="17.75" customWidth="1"/>
-    <col min="39" max="39" width="19" customWidth="1"/>
-    <col min="40" max="40" width="12.9166666666667" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="42" width="15.4166666666667" customWidth="1"/>
-    <col min="43" max="51" width="17" customWidth="1"/>
-    <col min="52" max="52" width="21.3333333333333" customWidth="1"/>
-    <col min="53" max="55" width="17" customWidth="1"/>
-    <col min="56" max="57" width="19.6666666666667" customWidth="1"/>
-    <col min="58" max="59" width="17.6666666666667" customWidth="1"/>
-    <col min="60" max="61" width="22.1666666666667" customWidth="1"/>
-    <col min="62" max="62" width="9.41666666666667" customWidth="1"/>
-    <col min="63" max="63" width="19.3333333333333" customWidth="1"/>
-    <col min="64" max="64" width="16" customWidth="1"/>
-    <col min="65" max="68" width="9.41666666666667" customWidth="1"/>
-    <col min="69" max="69" width="10.4166666666667" customWidth="1"/>
-    <col min="71" max="72" width="13.8333333333333" customWidth="1"/>
-    <col min="73" max="79" width="13.0833333333333" customWidth="1"/>
-    <col min="80" max="80" width="13.5833333333333" customWidth="1"/>
+    <col min="19" max="34" width="9.41666666666667" customWidth="1"/>
+    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="36" max="36" width="14.1666666666667" customWidth="1"/>
+    <col min="37" max="37" width="15.4166666666667" customWidth="1"/>
+    <col min="38" max="38" width="20.0833333333333" customWidth="1"/>
+    <col min="39" max="39" width="17.75" customWidth="1"/>
+    <col min="40" max="40" width="19" customWidth="1"/>
+    <col min="41" max="41" width="12.9166666666667" customWidth="1"/>
+    <col min="42" max="42" width="16.5" customWidth="1"/>
+    <col min="43" max="43" width="15.4166666666667" customWidth="1"/>
+    <col min="44" max="52" width="17" customWidth="1"/>
+    <col min="53" max="53" width="21.3333333333333" customWidth="1"/>
+    <col min="54" max="56" width="17" customWidth="1"/>
+    <col min="57" max="58" width="19.6666666666667" customWidth="1"/>
+    <col min="59" max="60" width="17.6666666666667" customWidth="1"/>
+    <col min="61" max="62" width="22.1666666666667" customWidth="1"/>
+    <col min="63" max="63" width="9.41666666666667" customWidth="1"/>
+    <col min="64" max="64" width="19.3333333333333" customWidth="1"/>
+    <col min="65" max="65" width="16" customWidth="1"/>
+    <col min="66" max="69" width="9.41666666666667" customWidth="1"/>
+    <col min="70" max="70" width="10.4166666666667" customWidth="1"/>
+    <col min="72" max="73" width="13.8333333333333" customWidth="1"/>
+    <col min="74" max="80" width="13.0833333333333" customWidth="1"/>
+    <col min="81" max="81" width="13.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:80">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:81">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2341,7 +2374,7 @@
       <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AJ1" s="8" t="s">
@@ -2431,7 +2464,7 @@
       <c r="BL1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="8" t="s">
         <v>62</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -2446,7 +2479,7 @@
       <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BT1" s="1" t="s">
@@ -2476,797 +2509,811 @@
       <c r="CB1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="CC1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:80">
+    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:81">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="AQ2" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="AR2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD2" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="BD2" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="BE2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM2" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="BM2" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="BN2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:81">
       <c r="A3" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AN3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AU3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AZ3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BH3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BI3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BJ3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BL3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BM3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BN3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BO3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BP3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BQ3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BS3" s="7" t="s">
         <v>168</v>
       </c>
       <c r="BT3" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BU3" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BV3" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BW3" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BX3" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BY3" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BZ3" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CA3" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CB3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:80">
+    <row r="4" s="3" customFormat="1" spans="1:81">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AX4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BA4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BB4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BD4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BH4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BI4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BJ4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BK4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BL4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BM4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BN4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BO4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BP4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BQ4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BR4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>163</v>
+        <v>79</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="19:20">
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="10" spans="70:74">
-      <c r="BR10" s="1"/>
+    <row r="10" spans="26:75">
+      <c r="Z10" s="3"/>
       <c r="BS10" s="1"/>
       <c r="BT10" s="1"/>
       <c r="BU10" s="1"/>
       <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
     </row>
-    <row r="11" spans="18:74">
+    <row r="11" spans="18:75">
       <c r="R11" s="8"/>
-      <c r="Y11" s="3"/>
-      <c r="BR11" s="2"/>
+      <c r="Z11" s="6"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
       <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
     </row>
-    <row r="12" spans="4:25">
+    <row r="12" spans="4:26">
       <c r="D12" s="6"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="12:17">
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="23" spans="70:75">
-      <c r="BR23" s="1"/>
+    <row r="23" spans="71:76">
       <c r="BS23" s="1"/>
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
       <c r="BV23" s="1"/>
       <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
     </row>
-    <row r="24" spans="70:75">
-      <c r="BR24" s="2"/>
+    <row r="24" spans="71:76">
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
       <c r="BU24" s="2"/>
       <c r="BV24" s="2"/>
       <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
     </row>
-    <row r="25" spans="70:75">
-      <c r="BR25" s="7"/>
+    <row r="25" spans="71:76">
       <c r="BS25" s="7"/>
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
       <c r="BV25" s="7"/>
       <c r="BW25" s="7"/>
+      <c r="BX25" s="7"/>
     </row>
-    <row r="26" spans="70:75">
-      <c r="BR26" s="3"/>
+    <row r="26" spans="71:76">
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/npc_heroes_custom.xlsx
+++ b/code/excels/npc_heroes_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="182">
   <si>
     <t>版本</t>
   </si>
@@ -486,17 +486,6 @@
   </si>
   <si>
     <t>courier_recovery_chess</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4EC9B0"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>courier_hut_change</t>
-    </r>
   </si>
   <si>
     <t>courier_upgrade_tech</t>
@@ -587,7 +576,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,12 +734,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4EC9B0"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1558,12 +1541,12 @@
   <sheetPr/>
   <dimension ref="A1:BZ8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:X2"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -2088,7 +2071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15.5" spans="1:68">
+    <row r="3" s="3" customFormat="1" spans="1:68">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2134,17 +2117,14 @@
       <c r="T3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="10" t="s">
         <v>156</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="AG3" s="3">
         <v>7</v>
@@ -2156,7 +2136,7 @@
         <v>550</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK3" s="3">
         <v>0.5</v>
@@ -2183,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BC3" s="3">
         <v>0</v>
@@ -2204,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BP3" s="3">
         <v>1</v>
@@ -2230,7 +2210,7 @@
   <sheetPr/>
   <dimension ref="A1:CC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:Z4"/>
     </sheetView>
   </sheetViews>
@@ -2273,7 +2253,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:81">
       <c r="A1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2515,10 +2495,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:81">
       <c r="A2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>78</v>
@@ -2725,7 +2705,7 @@
         <v>145</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>146</v>
@@ -2760,492 +2740,492 @@
     </row>
     <row r="3" spans="1:81">
       <c r="A3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="CB3" s="7" t="s">
+      <c r="CC3" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="CC3" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:81">
       <c r="A4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="BU4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="BV4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="19:20">
